--- a/biology/Zoologie/Edward_Harris_(ornithologue)/Edward_Harris_(ornithologue).xlsx
+++ b/biology/Zoologie/Edward_Harris_(ornithologue)/Edward_Harris_(ornithologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Harris est un fermier et un  ornithologue américain, né en 1799 et mort en 1863.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de fermier, il grandit près de Philadelphie. Il rencontre John James Audubon (1785-1851) en 1824 dont il deviendra l'ami le plus proche.
 L’aisance financière d’Harris lui permet de soutenir activement Audubon en lui achetant ses planches de façon généreuse. Il contribue notamment à l’édition de ses Birds of America à une époque où Audubon connaît une grande pauvreté.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).</t>
         </is>
